--- a/playwright_pars.xlsx
+++ b/playwright_pars.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,31 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Серія</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Стандарт зв'язку</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Діагональ екрана</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Роздільна здатність дисплея</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Тип матриці</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>images</t>
         </is>
       </c>
@@ -491,7 +516,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>33999₴</t>
+          <t>33999</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -499,7 +524,37 @@
           <t>395460480</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>iPhone 15</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2G (GPRS/EDGE)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2556x1179</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>OLED (Super Retina XDR)</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>https://content1.rozetka.com.ua/goods/images/big/364623744.jpg, https://content2.rozetka.com.ua/goods/images/big/364623745.jpg, https://content2.rozetka.com.ua/goods/images/big/364623746.jpg, https://content.rozetka.com.ua/goods/images/big/364761439.jpg, https://content.rozetka.com.ua/goods/images/big/364761440.jpg, https://content2.rozetka.com.ua/goods/images/big/364761441.jpg, https://content.rozetka.com.ua/goods/images/big/364761442.jpg</t>
         </is>
